--- a/simulations/raw_inclusion_exclusion/Menon_2022 IEC/output/tables/metrics/metrics_sim.xlsx
+++ b/simulations/raw_inclusion_exclusion/Menon_2022 IEC/output/tables/metrics/metrics_sim.xlsx
@@ -713,10 +713,10 @@
         <v>36</v>
       </c>
       <c r="C3">
-        <v>0.5405405405405406</v>
+        <v>0.5540540540540541</v>
       </c>
       <c r="D3">
-        <v>0.9054054054054054</v>
+        <v>0.8918918918918919</v>
       </c>
       <c r="E3">
         <v>0.972972972972973</v>
@@ -728,16 +728,16 @@
         <v>0.9864864864864865</v>
       </c>
       <c r="H3">
-        <v>0.598974358974359</v>
+        <v>0.5969230769230769</v>
       </c>
       <c r="I3">
-        <v>0.09786423493415725</v>
+        <v>0.09778924318324984</v>
       </c>
       <c r="J3">
-        <v>0.4459459459459459</v>
+        <v>0.4594594594594595</v>
       </c>
       <c r="K3">
-        <v>125.6756756756757</v>
+        <v>125.6081081081081</v>
       </c>
       <c r="L3">
         <v>7</v>
@@ -755,34 +755,34 @@
         <v>66</v>
       </c>
       <c r="Q3">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="R3">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="S3">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="T3">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="U3">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="V3">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="W3">
-        <v>879</v>
+        <v>884</v>
       </c>
       <c r="X3">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="Y3">
-        <v>808</v>
+        <v>796</v>
       </c>
       <c r="Z3">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="AA3">
         <v>67</v>
@@ -800,19 +800,19 @@
         <v>8</v>
       </c>
       <c r="AF3">
-        <v>0.9844619999999999</v>
+        <v>0.986681</v>
       </c>
       <c r="AG3">
-        <v>0.975583</v>
+        <v>0.981132</v>
       </c>
       <c r="AH3">
-        <v>0.952275</v>
+        <v>0.955605</v>
       </c>
       <c r="AI3">
-        <v>0.8967810000000001</v>
+        <v>0.883463</v>
       </c>
       <c r="AJ3">
-        <v>0.81909</v>
+        <v>0.81687</v>
       </c>
     </row>
   </sheetData>
